--- a/Doc/年终总结数据统计脚本/2.1-10分月统计.xlsx
+++ b/Doc/年终总结数据统计脚本/2.1-10分月统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="全部分月统计" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -93,7 +93,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -109,6 +109,3049 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>订单金额</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>全部分月统计!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>活跃商户</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>全部分月统计!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月";@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>全部分月统计!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3060</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>全部分月统计!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>商户总量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>全部分月统计!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月";@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>全部分月统计!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>全部分月统计!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>订单总金额</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>全部分月统计!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月";@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>全部分月统计!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6251910.8399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11108865.689999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21498223.350000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47265325.770000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6536246.0800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11500915.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19338529.399999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1521091.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1718541.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1160123.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1934650800"/>
+        <c:axId val="1934660048"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>新增商户数量</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$A$2:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy"年"m"月";@</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>42064</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42095</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42125</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42156</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42186</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42217</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42248</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42278</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42309</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42339</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$C$2:$C$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>553</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2209</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2516</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3390</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>625</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1044</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>703</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>183</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>198</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>196</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>任务总量</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$A$2:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy"年"m"月";@</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>42064</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42095</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42125</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42156</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42186</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42217</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42248</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42278</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42309</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42339</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$E$2:$E$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>49168</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>149671</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>643315</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>983907</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>110246</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>63554</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>97296</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7431</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6096</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4247</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>订单总量</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$A$2:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy"年"m"月";@</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>42064</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42095</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42125</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42156</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42186</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42217</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42248</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42278</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42309</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42339</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$F$2:$F$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>227766</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>488804</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1555164</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3337336</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>515766</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>429418</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>740921</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>57620</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>55695</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>33413</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1934650800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1934660048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1934660048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1934650800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>全部分月统计!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>活跃商户</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>全部分月统计!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月";@</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>全部分月统计!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3060</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>全部分月统计!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>新增商户数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>全部分月统计!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月";@</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>全部分月统计!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3390</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>全部分月统计!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>商户总量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>全部分月统计!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy"年"m"月";@</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>全部分月统计!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11224</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1934652432"/>
+        <c:axId val="1934652976"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>任务总量</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$A$2:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy"年"m"月";@</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>42064</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42095</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42125</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42156</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42186</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42217</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42248</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42278</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42309</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42339</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$E$2:$E$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>49168</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>149671</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>643315</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>983907</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>110246</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>63554</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>97296</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7431</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6096</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4247</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>订单总量</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$A$2:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy"年"m"月";@</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>42064</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42095</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42125</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42156</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42186</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42217</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42248</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42278</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42309</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42339</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$F$2:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>227766</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>488804</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1555164</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3337336</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>515766</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>429418</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>740921</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>57620</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>55695</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>33413</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+            <c15:filteredAreaSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>订单总金额</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$A$2:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy"年"m"月";@</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>42064</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42095</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42125</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42156</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42186</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>42217</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42248</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>42278</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42309</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>42339</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>全部分月统计!$G$2:$G$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>6251910.8399999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>11108865.689999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>21498223.350000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>47265325.770000003</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6536246.0800000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11500915.83</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>19338529.399999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1521091.29</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1718541.14</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1160123.76</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredAreaSeries>
+          </c:ext>
+        </c:extLst>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="1934652432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1934652976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1934652976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1934652432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>357186</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,8 +3443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -665,6 +3708,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1370,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
